--- a/Biochemical_species.xlsx
+++ b/Biochemical_species.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/gustavo_tudela_ctfc_cat/Documents/PhD/2025/Exchange period - Finland/YassoModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E220D6-E17B-4CBB-B035-B049CEFC73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{05E220D6-E17B-4CBB-B035-B049CEFC73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC63BD87-C0CF-4FD6-9D17-E84A60ACD0E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{4895F57A-3D92-42DC-A2E7-1FF41A1EB273}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{4895F57A-3D92-42DC-A2E7-1FF41A1EB273}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Species</t>
   </si>
@@ -75,6 +77,255 @@
   </si>
   <si>
     <t>https://doi.org/10.1007/s11104-020-04799-4</t>
+  </si>
+  <si>
+    <t>Extractables</t>
+  </si>
+  <si>
+    <t>0,1 4</t>
+  </si>
+  <si>
+    <t>10,28 ±</t>
+  </si>
+  <si>
+    <t>3,73 ±</t>
+  </si>
+  <si>
+    <t>5,44 ±</t>
+  </si>
+  <si>
+    <t>9,25 ±</t>
+  </si>
+  <si>
+    <t>0,2 3</t>
+  </si>
+  <si>
+    <t>7,70 ±</t>
+  </si>
+  <si>
+    <t>0,2 6</t>
+  </si>
+  <si>
+    <t>6,40 ±</t>
+  </si>
+  <si>
+    <t>0,3 4</t>
+  </si>
+  <si>
+    <t>10,47 ±</t>
+  </si>
+  <si>
+    <t>0,7 6</t>
+  </si>
+  <si>
+    <t>Total lignin</t>
+  </si>
+  <si>
+    <t>33,51 ±</t>
+  </si>
+  <si>
+    <t>34,26 ±</t>
+  </si>
+  <si>
+    <t>31,74 ±</t>
+  </si>
+  <si>
+    <t>± 0,64</t>
+  </si>
+  <si>
+    <t>31,69 ±</t>
+  </si>
+  <si>
+    <t>34,54 ±</t>
+  </si>
+  <si>
+    <t>37,43 ±</t>
+  </si>
+  <si>
+    <t>±0,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,62 ±</t>
+  </si>
+  <si>
+    <t>20,98 ±</t>
+  </si>
+  <si>
+    <t>29,67 ±</t>
+  </si>
+  <si>
+    <t>± 0,14</t>
+  </si>
+  <si>
+    <t>24,36 ±</t>
+  </si>
+  <si>
+    <t>22,43 ±</t>
+  </si>
+  <si>
+    <t>23,27 ±</t>
+  </si>
+  <si>
+    <t>26,59 ±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellulose </t>
+  </si>
+  <si>
+    <t>29,15 ±</t>
+  </si>
+  <si>
+    <t>2,45 ±</t>
+  </si>
+  <si>
+    <t>9,36 ±</t>
+  </si>
+  <si>
+    <t>±1,32</t>
+  </si>
+  <si>
+    <t>15,28 ±</t>
+  </si>
+  <si>
+    <t>13,07 ±</t>
+  </si>
+  <si>
+    <t>12,87 ±</t>
+  </si>
+  <si>
+    <t>12,37 ±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylan </t>
+  </si>
+  <si>
+    <t>2,81 ±</t>
+  </si>
+  <si>
+    <t>1,06 ±</t>
+  </si>
+  <si>
+    <t>0,81 ±</t>
+  </si>
+  <si>
+    <t>1,94 ±</t>
+  </si>
+  <si>
+    <t>1,31 ±</t>
+  </si>
+  <si>
+    <t>0,98 ±</t>
+  </si>
+  <si>
+    <t>1,62 ±</t>
+  </si>
+  <si>
+    <t>1,25 ±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabinan </t>
+  </si>
+  <si>
+    <t>1,16 ±</t>
+  </si>
+  <si>
+    <t>2,02 ±</t>
+  </si>
+  <si>
+    <t>3,12 ±</t>
+  </si>
+  <si>
+    <t>2,84 ±</t>
+  </si>
+  <si>
+    <t>2,69 ±</t>
+  </si>
+  <si>
+    <t>2,79 ±</t>
+  </si>
+  <si>
+    <t>2,78 ±</t>
+  </si>
+  <si>
+    <t>2,87 ±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galacturonan </t>
+  </si>
+  <si>
+    <t>2,47 ±</t>
+  </si>
+  <si>
+    <t>13,53 ±</t>
+  </si>
+  <si>
+    <t>19,03 ±</t>
+  </si>
+  <si>
+    <t>± 2,08</t>
+  </si>
+  <si>
+    <t>22,69 ±</t>
+  </si>
+  <si>
+    <t>20,57 ±</t>
+  </si>
+  <si>
+    <t>±0,81</t>
+  </si>
+  <si>
+    <t>±0,65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemicellulose </t>
+  </si>
+  <si>
+    <t>14,74 ±</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Ph leaf</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Ea</t>
+  </si>
+  <si>
+    <t>Ph</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Qs bark</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Pinus pinea</t>
+  </si>
+  <si>
+    <t>Pinus halepensis needle</t>
+  </si>
+  <si>
+    <t>Arbutus unedo</t>
+  </si>
+  <si>
+    <t>Erica arborea</t>
+  </si>
+  <si>
+    <t>Quercus suber</t>
+  </si>
+  <si>
+    <t>Castanea sativa</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -129,6 +380,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF7F8BE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD715484-1D44-4970-9CC7-E6A79E76C7D7}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,4 +1011,644 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC783C9-14FF-4866-A391-9D6D8800D57B}">
+  <dimension ref="B1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0.18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>0.77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>1.25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>1.42</v>
+      </c>
+      <c r="I4">
+        <v>19.02</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>0.89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>1.57</v>
+      </c>
+      <c r="O4">
+        <v>20.07</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4">
+        <v>19.36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>1.61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0.23</v>
+      </c>
+      <c r="I5">
+        <v>19.46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5">
+        <v>0.93</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>1.69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0.52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>0.35</v>
+      </c>
+      <c r="I6">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>0.44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
+        <v>0.22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>0.31</v>
+      </c>
+      <c r="Q6">
+        <v>29.47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <f>VALUE(MID(C3,1,FIND("±",C3)-2))</f>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E8">
+        <f>VALUE(MID(E3,1,FIND("±",E3)-2))</f>
+        <v>10.28</v>
+      </c>
+      <c r="G8">
+        <f>VALUE(MID(G3,1,FIND("±",G3)-2))</f>
+        <v>3.73</v>
+      </c>
+      <c r="I8">
+        <f>VALUE(MID(I3,1,FIND("±",I3)-2))</f>
+        <v>5.44</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:M11" si="0">VALUE(MID(K3,1,FIND("±",K3)-2))</f>
+        <v>9.25</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8" si="1">VALUE(MID(O3,1,FIND("±",O3)-2))</f>
+        <v>6.4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="2">VALUE(MID(Q3,1,FIND("±",Q3)-2))</f>
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <f>VALUE(MID(C4,1,FIND("±",C4)-2))</f>
+        <v>14.74</v>
+      </c>
+      <c r="E9">
+        <f>VALUE(MID(E4,1,FIND("±",E4)-2))</f>
+        <v>13.53</v>
+      </c>
+      <c r="G9">
+        <f>VALUE(MID(G4,1,FIND("±",G4)-2))</f>
+        <v>19.03</v>
+      </c>
+      <c r="I9">
+        <f>I4</f>
+        <v>19.02</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>22.69</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>20.57</v>
+      </c>
+      <c r="O9">
+        <f>O4</f>
+        <v>20.07</v>
+      </c>
+      <c r="Q9">
+        <f>Q4</f>
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f>VALUE(MID(C5,1,FIND("±",C5)-2))</f>
+        <v>29.15</v>
+      </c>
+      <c r="E10">
+        <f>VALUE(MID(E5,1,FIND("±",E5)-2))</f>
+        <v>20.98</v>
+      </c>
+      <c r="G10">
+        <f>VALUE(MID(G5,1,FIND("±",G5)-2))</f>
+        <v>29.67</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I11" si="3">I5</f>
+        <v>19.46</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>24.36</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>22.43</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10" si="4">VALUE(MID(O5,1,FIND("±",O5)-2))</f>
+        <v>23.27</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="5">VALUE(MID(Q5,1,FIND("±",Q5)-2))</f>
+        <v>26.59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <f>VALUE(MID(C6,1,FIND("±",C6)-2))</f>
+        <v>33.51</v>
+      </c>
+      <c r="E11">
+        <f>VALUE(MID(E6,1,FIND("±",E6)-2))</f>
+        <v>34.26</v>
+      </c>
+      <c r="G11">
+        <f>VALUE(MID(G6,1,FIND("±",G6)-2))</f>
+        <v>31.74</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>31.69</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>34.54</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11" si="6">VALUE(MID(O6,1,FIND("±",O6)-2))</f>
+        <v>37.43</v>
+      </c>
+      <c r="Q11">
+        <f>Q6</f>
+        <v>29.47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)</f>
+        <v>87.02</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E8:E11)</f>
+        <v>79.05</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G8:G11)</f>
+        <v>84.17</v>
+      </c>
+      <c r="I12">
+        <f>SUM(I8:I11)</f>
+        <v>76.97</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K8:K11)</f>
+        <v>87.99</v>
+      </c>
+      <c r="M12">
+        <f>SUM(M8:M11)</f>
+        <v>85.240000000000009</v>
+      </c>
+      <c r="O12">
+        <f>SUM(O8:O11)</f>
+        <v>87.169999999999987</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Q8:Q11)</f>
+        <v>85.89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I14">
+        <v>12.09</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14">
+        <v>0.53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>1.17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>0.17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>0.21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>0.15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>0.13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18">
+        <v>0.47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18">
+        <v>0.35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18">
+        <v>0.11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>0.06</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18">
+        <v>0.05</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>0.6858+0.1384+0.0758+0.0796</f>
+        <v>0.97959999999999992</v>
+      </c>
+      <c r="E22">
+        <f>0.479+0.1633+0.0817+0.276</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>